--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/las86/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{688A7040-CEAD-734B-BF5F-1886941619B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F503EE9-63AA-3A4F-B3A4-0BAA779A28BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="740" windowWidth="28480" windowHeight="18380" activeTab="2" xr2:uid="{49363321-3A04-4883-A01D-CB62A1E428CA}"/>
+    <workbookView xWindow="37480" yWindow="7460" windowWidth="28480" windowHeight="18380" activeTab="1" xr2:uid="{49363321-3A04-4883-A01D-CB62A1E428CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Visualizer" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="38">
   <si>
     <t>Year</t>
   </si>
@@ -119,19 +119,7 @@
     <t>Work</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Life</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>Category  3</t>
-  </si>
-  <si>
-    <t>Life Role 1</t>
   </si>
   <si>
     <t>Life Role 2</t>
@@ -159,6 +147,12 @@
   </si>
   <si>
     <t>Transition/Retirement</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Career</t>
   </si>
 </sst>
 </file>
@@ -573,7 +567,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -593,7 +587,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="3"/>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -614,28 +608,28 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>21</v>
@@ -657,7 +651,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7">
-        <f>SUM(C3:J3)</f>
+        <f t="shared" ref="K3:K34" si="0">SUM(C3:J3)</f>
         <v>0</v>
       </c>
     </row>
@@ -678,7 +672,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7">
-        <f>SUM(C4:J4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -687,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B55" si="0">B4+7</f>
+        <f t="shared" ref="B5:B55" si="1">B4+7</f>
         <v>45306</v>
       </c>
       <c r="C5" s="7"/>
@@ -699,7 +693,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7">
-        <f>SUM(C5:J5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -708,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45313</v>
       </c>
       <c r="C6" s="7"/>
@@ -720,7 +714,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7">
-        <f>SUM(C6:J6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -729,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45320</v>
       </c>
       <c r="C7" s="7"/>
@@ -741,7 +735,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7">
-        <f>SUM(C7:J7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -750,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45327</v>
       </c>
       <c r="C8" s="7"/>
@@ -762,7 +756,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7">
-        <f>SUM(C8:J8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -771,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45334</v>
       </c>
       <c r="C9" s="7"/>
@@ -783,7 +777,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7">
-        <f>SUM(C9:J9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -792,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45341</v>
       </c>
       <c r="C10" s="7"/>
@@ -804,7 +798,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7">
-        <f>SUM(C10:J10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -813,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45348</v>
       </c>
       <c r="C11" s="7"/>
@@ -825,7 +819,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7">
-        <f>SUM(C11:J11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -834,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45355</v>
       </c>
       <c r="C12" s="7"/>
@@ -846,7 +840,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7">
-        <f>SUM(C12:J12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -855,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45362</v>
       </c>
       <c r="C13" s="7"/>
@@ -867,7 +861,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7">
-        <f>SUM(C13:J13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -876,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45369</v>
       </c>
       <c r="C14" s="7"/>
@@ -888,7 +882,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7">
-        <f>SUM(C14:J14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -897,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45376</v>
       </c>
       <c r="C15" s="7"/>
@@ -909,7 +903,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7">
-        <f>SUM(C15:J15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -918,7 +912,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45383</v>
       </c>
       <c r="C16" s="7"/>
@@ -930,7 +924,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7">
-        <f>SUM(C16:J16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -939,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45390</v>
       </c>
       <c r="C17" s="7"/>
@@ -951,7 +945,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7">
-        <f>SUM(C17:J17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -960,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45397</v>
       </c>
       <c r="C18" s="7"/>
@@ -972,7 +966,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7">
-        <f>SUM(C18:J18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -981,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45404</v>
       </c>
       <c r="C19" s="7"/>
@@ -993,7 +987,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7">
-        <f>SUM(C19:J19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1002,7 +996,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45411</v>
       </c>
       <c r="C20" s="7"/>
@@ -1014,7 +1008,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7">
-        <f>SUM(C20:J20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1023,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45418</v>
       </c>
       <c r="C21" s="7"/>
@@ -1035,7 +1029,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7">
-        <f>SUM(C21:J21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1044,7 +1038,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45425</v>
       </c>
       <c r="C22" s="7"/>
@@ -1056,7 +1050,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7">
-        <f>SUM(C22:J22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1065,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45432</v>
       </c>
       <c r="C23" s="7"/>
@@ -1077,7 +1071,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7">
-        <f>SUM(C23:J23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1086,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45439</v>
       </c>
       <c r="C24" s="7"/>
@@ -1098,7 +1092,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7">
-        <f>SUM(C24:J24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1107,7 +1101,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45446</v>
       </c>
       <c r="C25" s="7"/>
@@ -1119,7 +1113,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7">
-        <f>SUM(C25:J25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1128,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45453</v>
       </c>
       <c r="C26" s="7"/>
@@ -1140,7 +1134,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7">
-        <f>SUM(C26:J26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1149,7 +1143,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45460</v>
       </c>
       <c r="C27" s="7"/>
@@ -1161,7 +1155,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7">
-        <f>SUM(C27:J27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1170,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45467</v>
       </c>
       <c r="C28" s="7"/>
@@ -1182,7 +1176,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7">
-        <f>SUM(C28:J28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1191,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45474</v>
       </c>
       <c r="C29" s="7"/>
@@ -1203,7 +1197,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7">
-        <f>SUM(C29:J29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1212,7 +1206,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45481</v>
       </c>
       <c r="C30" s="7"/>
@@ -1224,7 +1218,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7">
-        <f>SUM(C30:J30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1233,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45488</v>
       </c>
       <c r="C31" s="7"/>
@@ -1245,7 +1239,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7">
-        <f>SUM(C31:J31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1254,7 +1248,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45495</v>
       </c>
       <c r="C32" s="7"/>
@@ -1266,7 +1260,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7">
-        <f>SUM(C32:J32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1275,7 +1269,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45502</v>
       </c>
       <c r="C33" s="7"/>
@@ -1287,7 +1281,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7">
-        <f>SUM(C33:J33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1296,7 +1290,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45509</v>
       </c>
       <c r="C34" s="7"/>
@@ -1308,7 +1302,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7">
-        <f>SUM(C34:J34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1317,7 +1311,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45516</v>
       </c>
       <c r="C35" s="7"/>
@@ -1329,7 +1323,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7">
-        <f>SUM(C35:J35)</f>
+        <f t="shared" ref="K35:K66" si="2">SUM(C35:J35)</f>
         <v>0</v>
       </c>
     </row>
@@ -1338,7 +1332,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45523</v>
       </c>
       <c r="C36" s="7"/>
@@ -1350,7 +1344,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7">
-        <f>SUM(C36:J36)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1359,7 +1353,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45530</v>
       </c>
       <c r="C37" s="7"/>
@@ -1371,7 +1365,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7">
-        <f>SUM(C37:J37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1380,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45537</v>
       </c>
       <c r="F38" s="7"/>
@@ -1389,7 +1383,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="1">
-        <f>SUM(C38:J38)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1398,7 +1392,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45544</v>
       </c>
       <c r="F39" s="7"/>
@@ -1407,7 +1401,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="1">
-        <f>SUM(C39:J39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1416,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45551</v>
       </c>
       <c r="F40" s="7"/>
@@ -1425,7 +1419,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="1">
-        <f>SUM(C40:J40)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1434,7 +1428,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45558</v>
       </c>
       <c r="F41" s="7"/>
@@ -1443,7 +1437,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="1">
-        <f>SUM(C41:J41)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1452,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45565</v>
       </c>
       <c r="F42" s="7"/>
@@ -1461,7 +1455,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="1">
-        <f>SUM(C42:J42)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1470,11 +1464,11 @@
         <v>9</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45572</v>
       </c>
       <c r="K43" s="1">
-        <f>SUM(C43:J43)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1483,11 +1477,11 @@
         <v>9</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45579</v>
       </c>
       <c r="K44" s="1">
-        <f>SUM(C44:J44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1496,11 +1490,11 @@
         <v>9</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45586</v>
       </c>
       <c r="K45" s="1">
-        <f>SUM(C45:J45)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1509,11 +1503,11 @@
         <v>9</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45593</v>
       </c>
       <c r="K46" s="1">
-        <f>SUM(C46:J46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1522,11 +1516,11 @@
         <v>9</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45600</v>
       </c>
       <c r="K47" s="1">
-        <f>SUM(C47:J47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1535,11 +1529,11 @@
         <v>9</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45607</v>
       </c>
       <c r="K48" s="1">
-        <f>SUM(C48:J48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1548,11 +1542,11 @@
         <v>9</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45614</v>
       </c>
       <c r="K49" s="1">
-        <f>SUM(C49:J49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1561,11 +1555,11 @@
         <v>9</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45621</v>
       </c>
       <c r="K50" s="1">
-        <f>SUM(C50:J50)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1574,11 +1568,11 @@
         <v>9</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45628</v>
       </c>
       <c r="K51" s="1">
-        <f>SUM(C51:J51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1587,11 +1581,11 @@
         <v>10</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45635</v>
       </c>
       <c r="K52" s="1">
-        <f>SUM(C52:J52)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1600,11 +1594,11 @@
         <v>10</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45642</v>
       </c>
       <c r="K53" s="1">
-        <f>SUM(C53:J53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1613,11 +1607,11 @@
         <v>10</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45649</v>
       </c>
       <c r="K54" s="1">
-        <f>SUM(C54:J54)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1626,11 +1620,11 @@
         <v>10</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45656</v>
       </c>
       <c r="K55" s="1">
-        <f>SUM(C55:J55)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1643,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5113F2-7EAD-FA41-971A-E1C7A8C4D6CE}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36:L37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1662,7 +1656,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>25</v>
@@ -1676,28 +1670,28 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>21</v>
@@ -1716,7 +1710,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7">
-        <f>SUM(C3:J3)</f>
+        <f t="shared" ref="K3:K42" si="0">SUM(C3:J3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1733,7 +1727,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7">
-        <f>SUM(C4:J4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1750,7 +1744,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7">
-        <f>SUM(C5:J5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1767,7 +1761,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7">
-        <f>SUM(C6:J6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1784,7 +1778,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7">
-        <f>SUM(C7:J7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1801,7 +1795,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7">
-        <f>SUM(C8:J8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1818,7 +1812,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7">
-        <f>SUM(C9:J9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1835,7 +1829,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7">
-        <f>SUM(C10:J10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1852,7 +1846,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7">
-        <f>SUM(C11:J11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1869,7 +1863,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7">
-        <f>SUM(C12:J12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1886,7 +1880,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7">
-        <f>SUM(C13:J13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1903,7 +1897,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7">
-        <f>SUM(C14:J14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1920,7 +1914,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7">
-        <f>SUM(C15:J15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1937,7 +1931,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7">
-        <f>SUM(C16:J16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1954,7 +1948,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7">
-        <f>SUM(C17:J17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1971,7 +1965,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7">
-        <f>SUM(C18:J18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1988,7 +1982,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7">
-        <f>SUM(C19:J19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2005,7 +1999,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7">
-        <f>SUM(C20:J20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2022,7 +2016,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7">
-        <f>SUM(C21:J21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2039,7 +2033,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7">
-        <f>SUM(C22:J22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2056,7 +2050,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7">
-        <f>SUM(C23:J23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2073,7 +2067,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7">
-        <f>SUM(C24:J24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2090,7 +2084,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7">
-        <f>SUM(C25:J25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2107,7 +2101,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7">
-        <f>SUM(C26:J26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2118,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7">
-        <f>SUM(C27:J27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2141,7 +2135,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7">
-        <f>SUM(C28:J28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2158,7 +2152,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7">
-        <f>SUM(C29:J29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2175,7 +2169,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7">
-        <f>SUM(C30:J30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2192,7 +2186,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7">
-        <f>SUM(C31:J31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2209,7 +2203,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7">
-        <f>SUM(C32:J32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2226,7 +2220,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7">
-        <f>SUM(C33:J33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2243,7 +2237,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7">
-        <f>SUM(C34:J34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2260,7 +2254,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7">
-        <f>SUM(C35:J35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2277,7 +2271,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7">
-        <f>SUM(C36:J36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2294,7 +2288,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7">
-        <f>SUM(C37:J37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2308,7 +2302,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="1">
-        <f>SUM(C38:J38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2322,7 +2316,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="1">
-        <f>SUM(C39:J39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2336,7 +2330,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="1">
-        <f>SUM(C40:J40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2350,7 +2344,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="1">
-        <f>SUM(C41:J41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2364,7 +2358,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="1">
-        <f>SUM(C42:J42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2377,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E583D58-3FE8-014A-991A-7906465C8F5D}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2398,17 +2392,19 @@
       <c r="A1" s="1"/>
       <c r="B1" s="3"/>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4580,8 +4576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15E9A6B-7465-4F24-AD54-BE7FBD0FD866}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4599,16 +4595,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4807,7 +4803,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -4846,7 +4842,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -4885,7 +4881,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -4924,7 +4920,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -4963,7 +4959,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -5002,7 +4998,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -5981,7 +5977,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3">
         <v>35</v>
@@ -6023,7 +6019,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3">
         <v>36</v>
@@ -6062,7 +6058,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3">
         <v>37</v>
@@ -6101,7 +6097,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3">
         <v>38</v>
@@ -6140,7 +6136,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3">
         <v>39</v>
@@ -6179,7 +6175,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B42" s="3">
         <v>40</v>
